--- a/ETEC/2 ano/DB/Avt_DB.xlsx
+++ b/ETEC/2 ano/DB/Avt_DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\publishing\_ODDJOB\Templates\PTB\target\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dti\Desktop\Estudos\ETEC\2 ano\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B969D687-EF4F-F24E-9773-C4B4BBA1F8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0810DE-1391-4ECE-BB03-A81B770B4497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2250" windowWidth="21000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,23 +32,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="166">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -435,6 +424,117 @@
   </si>
   <si>
     <t xml:space="preserve">Funcionário </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>Fornecedor</t>
+  </si>
+  <si>
+    <t>Armazena informações de um fornecedor de tecido</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MEI</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>Codigo do produto</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Nempresa</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Armazena informações de um Departamento</t>
+  </si>
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Cargos</t>
+  </si>
+  <si>
+    <t>Chorario</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Defetivacao</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Codigo de identidade</t>
+  </si>
+  <si>
+    <t>Codigo MEI da empresa</t>
+  </si>
+  <si>
+    <t>Codigo CNPJ da empresa</t>
+  </si>
+  <si>
+    <t>telefone da empresa</t>
+  </si>
+  <si>
+    <t>peso do produto</t>
+  </si>
+  <si>
+    <t>Nome da empresa</t>
+  </si>
+  <si>
+    <t>Endereço da empresa</t>
+  </si>
+  <si>
+    <t>Preço dos itens</t>
+  </si>
+  <si>
+    <t>Codigo de indentificaçao</t>
+  </si>
+  <si>
+    <t>local onde o departamento esta</t>
+  </si>
+  <si>
+    <t>Cargos do departamento</t>
+  </si>
+  <si>
+    <t>Carga horaria</t>
+  </si>
+  <si>
+    <t>Registro do departamento</t>
+  </si>
+  <si>
+    <t>Data de efetivaçao</t>
+  </si>
+  <si>
+    <t>Gastos do departamento</t>
+  </si>
+  <si>
+    <t>Setores do departamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not null </t>
   </si>
 </sst>
 </file>
@@ -442,10 +542,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="6" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -716,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -780,7 +880,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -792,7 +892,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -890,19 +990,19 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="9" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
@@ -947,7 +1047,7 @@
     <xf numFmtId="20" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -966,7 +1066,13 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -986,6 +1092,9 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1052,7 +1161,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1060,7 +1169,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1087,7 +1196,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1110,14 +1219,14 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1157,7 +1266,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1659,34 +1768,91 @@
     <tabColor theme="1" tint="0.14999847407452621"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.4453125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="9.13671875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="4.4921875" style="33" customWidth="1"/>
-    <col min="4" max="10" width="22.17578125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="3.59375" style="33" customWidth="1"/>
-    <col min="12" max="16384" width="9.13671875" style="33"/>
+    <col min="1" max="1" width="3.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="33" customWidth="1"/>
+    <col min="4" max="10" width="22.140625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
-      <c r="K1" s="53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="73"/>
       <c r="B2" s="73"/>
-    </row>
-    <row r="3" spans="1:11" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="74"/>
       <c r="B3" s="72" t="s">
         <v>105</v>
@@ -1699,47 +1865,112 @@
         <v>75</v>
       </c>
       <c r="H3" s="71"/>
-    </row>
-    <row r="4" spans="1:11" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="75"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="75"/>
       <c r="D6" s="76" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="70"/>
       <c r="F6" s="70"/>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-    </row>
-    <row r="7" spans="1:11" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="H6" s="90"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+    </row>
+    <row r="7" spans="1:20" ht="29.25" x14ac:dyDescent="0.4">
       <c r="C7" s="35"/>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="86"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="35"/>
       <c r="G7" s="36"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="38"/>
@@ -1761,9 +1992,9 @@
       </c>
       <c r="J9" s="38"/>
     </row>
-    <row r="10" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
+    <row r="10" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
       <c r="D10" s="65" t="s">
         <v>83</v>
       </c>
@@ -1782,12 +2013,12 @@
       </c>
       <c r="J10" s="39"/>
     </row>
-    <row r="11" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="85" t="e">
+    <row r="11" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="87" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B2)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B11" s="85"/>
+      <c r="B11" s="87"/>
       <c r="D11" s="66" t="s">
         <v>84</v>
       </c>
@@ -1806,12 +2037,12 @@
       </c>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="85" t="e">
+    <row r="12" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="87" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B3)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B12" s="85"/>
+      <c r="B12" s="87"/>
       <c r="D12" s="66" t="s">
         <v>85</v>
       </c>
@@ -1830,12 +2061,12 @@
       </c>
       <c r="J12" s="40"/>
     </row>
-    <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="85" t="e">
+    <row r="13" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="87" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B4)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="87"/>
       <c r="D13" s="66" t="s">
         <v>86</v>
       </c>
@@ -1854,9 +2085,9 @@
       </c>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
+    <row r="14" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
       <c r="D14" s="66" t="s">
         <v>87</v>
       </c>
@@ -1875,12 +2106,12 @@
       </c>
       <c r="J14" s="40"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="85" t="e">
+    <row r="15" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="87" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B6)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="87"/>
       <c r="D15" s="66" t="s">
         <v>88</v>
       </c>
@@ -1897,12 +2128,12 @@
       </c>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="85" t="e">
+    <row r="16" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="87" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B7)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B16" s="85"/>
+      <c r="B16" s="87"/>
       <c r="D16" s="66" t="s">
         <v>89</v>
       </c>
@@ -1919,12 +2150,12 @@
       </c>
       <c r="J16" s="40"/>
     </row>
-    <row r="17" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="85" t="e">
+    <row r="17" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="87" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B8)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B17" s="85"/>
+      <c r="B17" s="87"/>
       <c r="D17" s="66" t="s">
         <v>90</v>
       </c>
@@ -1941,12 +2172,12 @@
       </c>
       <c r="J17" s="40"/>
     </row>
-    <row r="18" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="85" t="e">
+    <row r="18" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="87" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B9)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="87"/>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
@@ -1955,12 +2186,12 @@
       <c r="I18" s="84"/>
       <c r="J18" s="84"/>
     </row>
-    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="85" t="e">
+    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="87" t="e">
         <f t="shared" ref="A19:A33" si="0">HoraDeInício+TIME(0,(ROW(B10)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B19" s="85"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="82"/>
       <c r="D19" s="83"/>
       <c r="E19" s="83"/>
@@ -1971,12 +2202,12 @@
       <c r="J19" s="83"/>
       <c r="K19" s="82"/>
     </row>
-    <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="85" t="e">
+    <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B20" s="85"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -1987,12 +2218,12 @@
       <c r="J20" s="32"/>
       <c r="K20" s="82"/>
     </row>
-    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="85" t="e">
+    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B21" s="85"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="71"/>
       <c r="D21" s="71" t="s">
         <v>74</v>
@@ -2007,12 +2238,12 @@
       <c r="J21" s="42"/>
       <c r="K21" s="82"/>
     </row>
-    <row r="22" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="85" t="e">
+    <row r="22" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
@@ -2023,12 +2254,12 @@
       <c r="J22" s="32"/>
       <c r="K22" s="82"/>
     </row>
-    <row r="23" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="85" t="e">
+    <row r="23" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B23" s="85"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="75"/>
       <c r="D23" s="80" t="s">
         <v>76</v>
@@ -2043,12 +2274,12 @@
       <c r="J23" s="79"/>
       <c r="K23" s="82"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="e">
+    <row r="24" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B24" s="85"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="35"/>
       <c r="D24" s="77" t="s">
         <v>78</v>
@@ -2058,19 +2289,19 @@
       <c r="G24" s="36"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="85" t="e">
+    <row r="25" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B25" s="85"/>
-    </row>
-    <row r="26" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="85" t="e">
+      <c r="B25" s="87"/>
+    </row>
+    <row r="26" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B26" s="85"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
         <v>79</v>
@@ -2090,12 +2321,12 @@
       </c>
       <c r="J26" s="38"/>
     </row>
-    <row r="27" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="85" t="e">
+    <row r="27" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B27" s="85"/>
+      <c r="B27" s="87"/>
       <c r="D27" s="65" t="s">
         <v>106</v>
       </c>
@@ -2114,12 +2345,12 @@
       </c>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="85" t="e">
+    <row r="28" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="87"/>
       <c r="D28" s="66" t="s">
         <v>107</v>
       </c>
@@ -2138,12 +2369,12 @@
       </c>
       <c r="J28" s="40"/>
     </row>
-    <row r="29" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="85" t="e">
+    <row r="29" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B29" s="85"/>
+      <c r="B29" s="87"/>
       <c r="D29" s="66" t="s">
         <v>108</v>
       </c>
@@ -2160,12 +2391,12 @@
       </c>
       <c r="J29" s="40"/>
     </row>
-    <row r="30" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="85" t="e">
+    <row r="30" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B30" s="85"/>
+      <c r="B30" s="87"/>
       <c r="D30" s="66" t="s">
         <v>109</v>
       </c>
@@ -2182,12 +2413,12 @@
       </c>
       <c r="J30" s="40"/>
     </row>
-    <row r="31" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="85" t="e">
+    <row r="31" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B31" s="85"/>
+      <c r="B31" s="87"/>
       <c r="D31" s="66" t="s">
         <v>110</v>
       </c>
@@ -2206,12 +2437,12 @@
       </c>
       <c r="J31" s="40"/>
     </row>
-    <row r="32" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="85" t="e">
+    <row r="32" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B32" s="85"/>
+      <c r="B32" s="87"/>
       <c r="D32" s="66" t="s">
         <v>111</v>
       </c>
@@ -2230,12 +2461,12 @@
       </c>
       <c r="J32" s="40"/>
     </row>
-    <row r="33" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="85" t="e">
+    <row r="33" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="87" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="B33" s="85"/>
+      <c r="B33" s="87"/>
       <c r="D33" s="66" t="s">
         <v>112</v>
       </c>
@@ -2254,7 +2485,7 @@
       </c>
       <c r="J33" s="40"/>
     </row>
-    <row r="34" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="66" t="s">
         <v>113</v>
       </c>
@@ -2273,7 +2504,7 @@
       </c>
       <c r="J34" s="40"/>
     </row>
-    <row r="35" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="66" t="s">
         <v>122</v>
       </c>
@@ -2292,7 +2523,7 @@
       </c>
       <c r="J35" s="40"/>
     </row>
-    <row r="36" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
@@ -2301,7 +2532,7 @@
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
     </row>
-    <row r="37" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D37" s="84"/>
       <c r="E37" s="84"/>
       <c r="F37" s="84"/>
@@ -2310,8 +2541,10 @@
       <c r="I37" s="84"/>
       <c r="J37" s="84"/>
     </row>
-    <row r="38" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="83"/>
+    <row r="38" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="85" t="s">
+        <v>0</v>
+      </c>
       <c r="E38" s="83"/>
       <c r="F38" s="83"/>
       <c r="G38" s="83"/>
@@ -2320,7 +2553,7 @@
       <c r="J38" s="83"/>
       <c r="K38" s="82"/>
     </row>
-    <row r="39" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="73"/>
       <c r="B39" s="73"/>
       <c r="D39" s="83"/>
@@ -2332,13 +2565,15 @@
       <c r="J39" s="83"/>
       <c r="K39" s="82"/>
     </row>
-    <row r="40" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="74"/>
       <c r="B40" s="72" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="D40" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -2347,7 +2582,7 @@
       <c r="J40" s="32"/>
       <c r="K40" s="82"/>
     </row>
-    <row r="41" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="71"/>
       <c r="D41" s="71" t="s">
         <v>74</v>
@@ -2355,14 +2590,14 @@
       <c r="E41" s="71"/>
       <c r="F41" s="71"/>
       <c r="G41" s="71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H41" s="71"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
       <c r="K41" s="82"/>
     </row>
-    <row r="42" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
@@ -2373,7 +2608,7 @@
       <c r="J42" s="32"/>
       <c r="K42" s="82"/>
     </row>
-    <row r="43" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="75"/>
       <c r="D43" s="80" t="s">
         <v>76</v>
@@ -2381,14 +2616,14 @@
       <c r="E43" s="75"/>
       <c r="F43" s="75"/>
       <c r="G43" s="81" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H43" s="75"/>
       <c r="I43" s="79"/>
       <c r="J43" s="79"/>
       <c r="K43" s="82"/>
     </row>
-    <row r="44" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C44" s="35"/>
       <c r="D44" s="77" t="s">
         <v>78</v>
@@ -2398,7 +2633,7 @@
       <c r="G44" s="36"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="46" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
       <c r="C46" s="38"/>
@@ -2420,14 +2655,14 @@
       </c>
       <c r="J46" s="38"/>
     </row>
-    <row r="47" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
       <c r="B47" s="78"/>
       <c r="D47" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>114</v>
+        <v>132</v>
+      </c>
+      <c r="E47" s="94" t="s">
+        <v>148</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="39" t="s">
@@ -2441,82 +2676,86 @@
       </c>
       <c r="J47" s="39"/>
     </row>
-    <row r="48" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="78" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B39)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B48" s="78"/>
       <c r="D48" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>149</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="40" t="s">
         <v>99</v>
       </c>
       <c r="H48" s="68">
-        <v>50</v>
-      </c>
-      <c r="I48" s="40" t="s">
-        <v>104</v>
+        <v>20</v>
+      </c>
+      <c r="I48" s="54" t="s">
+        <v>125</v>
       </c>
       <c r="J48" s="40"/>
     </row>
-    <row r="49" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="78" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B40)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B49" s="78"/>
       <c r="D49" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>150</v>
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" s="68"/>
-      <c r="I49" s="40" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="H49" s="68">
+        <v>25</v>
+      </c>
+      <c r="I49" s="54" t="s">
+        <v>125</v>
       </c>
       <c r="J49" s="40"/>
     </row>
-    <row r="50" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="78" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B41)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B50" s="78"/>
       <c r="D50" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>116</v>
+        <v>135</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="F50" s="40"/>
-      <c r="G50" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="68"/>
+      <c r="G50" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" s="68">
+        <v>28</v>
+      </c>
       <c r="I50" s="40" t="s">
         <v>104</v>
       </c>
       <c r="J50" s="40"/>
     </row>
-    <row r="51" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
       <c r="B51" s="78"/>
       <c r="D51" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="40" t="s">
-        <v>119</v>
+      <c r="E51" s="54" t="s">
+        <v>151</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40" t="s">
@@ -2530,17 +2769,17 @@
       </c>
       <c r="J51" s="40"/>
     </row>
-    <row r="52" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="78" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B43)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B52" s="78"/>
       <c r="D52" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>118</v>
+        <v>136</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>152</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="40" t="s">
@@ -2554,17 +2793,17 @@
       </c>
       <c r="J52" s="40"/>
     </row>
-    <row r="53" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="78" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B44)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B53" s="78"/>
       <c r="D53" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>120</v>
+        <v>137</v>
+      </c>
+      <c r="E53" s="54" t="s">
+        <v>153</v>
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="40" t="s">
@@ -2578,7 +2817,7 @@
       </c>
       <c r="J53" s="40"/>
     </row>
-    <row r="54" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="78" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B45)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
@@ -2587,8 +2826,8 @@
       <c r="D54" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="E54" s="40" t="s">
-        <v>121</v>
+      <c r="E54" s="54" t="s">
+        <v>154</v>
       </c>
       <c r="F54" s="40"/>
       <c r="G54" s="40" t="s">
@@ -2602,31 +2841,29 @@
       </c>
       <c r="J54" s="40"/>
     </row>
-    <row r="55" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="78" t="e">
         <f>HoraDeInício+TIME(0,(ROW(B46)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B55" s="78"/>
       <c r="D55" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>123</v>
+        <v>138</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>155</v>
       </c>
       <c r="F55" s="40"/>
-      <c r="G55" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H55" s="68">
-        <v>20</v>
-      </c>
+      <c r="G55" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="68"/>
       <c r="I55" s="40" t="s">
         <v>125</v>
       </c>
       <c r="J55" s="40"/>
     </row>
-    <row r="56" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="78" t="e">
         <f t="shared" ref="A56:A70" si="1">HoraDeInício+TIME(0,(ROW(B47)-1)*HorárioDeIntervalo,0)</f>
         <v>#VALUE!</v>
@@ -2640,42 +2877,42 @@
       <c r="I56" s="40"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="B57" s="78"/>
     </row>
-    <row r="58" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="B58" s="78"/>
     </row>
-    <row r="59" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="B59" s="78"/>
     </row>
-    <row r="60" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="B60" s="78"/>
     </row>
-    <row r="61" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="B61" s="78"/>
     </row>
-    <row r="62" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -2691,7 +2928,7 @@
       <c r="J62" s="32"/>
       <c r="K62" s="82"/>
     </row>
-    <row r="63" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -2704,14 +2941,14 @@
       <c r="E63" s="71"/>
       <c r="F63" s="71"/>
       <c r="G63" s="71" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H63" s="71"/>
       <c r="I63" s="42"/>
       <c r="J63" s="42"/>
       <c r="K63" s="82"/>
     </row>
-    <row r="64" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -2727,7 +2964,7 @@
       <c r="J64" s="32"/>
       <c r="K64" s="82"/>
     </row>
-    <row r="65" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -2740,14 +2977,14 @@
       <c r="E65" s="75"/>
       <c r="F65" s="75"/>
       <c r="G65" s="81" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H65" s="75"/>
       <c r="I65" s="79"/>
       <c r="J65" s="79"/>
       <c r="K65" s="82"/>
     </row>
-    <row r="66" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -2762,14 +2999,14 @@
       <c r="G66" s="36"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="B67" s="78"/>
     </row>
-    <row r="68" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -2794,17 +3031,17 @@
       </c>
       <c r="J68" s="38"/>
     </row>
-    <row r="69" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="B69" s="78"/>
       <c r="D69" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>114</v>
+        <v>132</v>
+      </c>
+      <c r="E69" s="94" t="s">
+        <v>156</v>
       </c>
       <c r="F69" s="39"/>
       <c r="G69" s="39" t="s">
@@ -2818,17 +3055,17 @@
       </c>
       <c r="J69" s="39"/>
     </row>
-    <row r="70" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="B70" s="78"/>
       <c r="D70" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>115</v>
+        <v>142</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>157</v>
       </c>
       <c r="F70" s="40"/>
       <c r="G70" s="40" t="s">
@@ -2837,38 +3074,40 @@
       <c r="H70" s="68">
         <v>50</v>
       </c>
-      <c r="I70" s="40" t="s">
-        <v>104</v>
+      <c r="I70" s="54" t="s">
+        <v>125</v>
       </c>
       <c r="J70" s="40"/>
     </row>
-    <row r="71" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" s="40" t="s">
-        <v>117</v>
+        <v>143</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>158</v>
       </c>
       <c r="F71" s="40"/>
       <c r="G71" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="H71" s="68"/>
+        <v>99</v>
+      </c>
+      <c r="H71" s="68">
+        <v>20</v>
+      </c>
       <c r="I71" s="40" t="s">
         <v>104</v>
       </c>
       <c r="J71" s="40"/>
     </row>
-    <row r="72" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D72" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>116</v>
+        <v>144</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>159</v>
       </c>
       <c r="F72" s="40"/>
-      <c r="G72" s="40" t="s">
-        <v>101</v>
+      <c r="G72" s="54" t="s">
+        <v>100</v>
       </c>
       <c r="H72" s="68"/>
       <c r="I72" s="40" t="s">
@@ -2876,12 +3115,12 @@
       </c>
       <c r="J72" s="40"/>
     </row>
-    <row r="73" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>119</v>
+        <v>145</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>160</v>
       </c>
       <c r="F73" s="40"/>
       <c r="G73" s="40" t="s">
@@ -2890,17 +3129,17 @@
       <c r="H73" s="68">
         <v>15</v>
       </c>
-      <c r="I73" s="40" t="s">
-        <v>104</v>
+      <c r="I73" s="54" t="s">
+        <v>125</v>
       </c>
       <c r="J73" s="40"/>
     </row>
-    <row r="74" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D74" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>118</v>
+        <v>146</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>161</v>
       </c>
       <c r="F74" s="40"/>
       <c r="G74" s="40" t="s">
@@ -2914,31 +3153,29 @@
       </c>
       <c r="J74" s="40"/>
     </row>
-    <row r="75" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D75" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="E75" s="40" t="s">
-        <v>120</v>
+        <v>147</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>162</v>
       </c>
       <c r="F75" s="40"/>
-      <c r="G75" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H75" s="68">
-        <v>30</v>
-      </c>
-      <c r="I75" s="40" t="s">
-        <v>126</v>
+      <c r="G75" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" s="68"/>
+      <c r="I75" s="54" t="s">
+        <v>164</v>
       </c>
       <c r="J75" s="40"/>
     </row>
-    <row r="76" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D76" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" s="40" t="s">
-        <v>121</v>
+        <v>141</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>163</v>
       </c>
       <c r="F76" s="40"/>
       <c r="G76" s="40" t="s">
@@ -2947,31 +3184,21 @@
       <c r="H76" s="68">
         <v>55</v>
       </c>
-      <c r="I76" s="40" t="s">
-        <v>125</v>
+      <c r="I76" s="54" t="s">
+        <v>165</v>
       </c>
       <c r="J76" s="40"/>
     </row>
-    <row r="77" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D77" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>123</v>
-      </c>
+    <row r="77" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="66"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="40"/>
-      <c r="G77" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H77" s="68">
-        <v>20</v>
-      </c>
-      <c r="I77" s="40" t="s">
-        <v>125</v>
-      </c>
+      <c r="G77" s="40"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="40"/>
       <c r="J77" s="40"/>
     </row>
-    <row r="78" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
       <c r="F78" s="40"/>
@@ -3029,61 +3256,61 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.4453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.55078125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="42.40234375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.78125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="16.78125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="16.78125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="16.78125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.59375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.13671875" style="4"/>
+    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="41"/>
       <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="89">
+      <c r="G5" s="91">
         <f>TERMO!I5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="89"/>
-    </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="91"/>
+    </row>
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-    </row>
-    <row r="7" spans="1:9" s="52" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+    </row>
+    <row r="7" spans="1:9" s="52" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="64" t="s">
         <v>3</v>
@@ -3091,7 +3318,7 @@
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
@@ -3103,7 +3330,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <f>AVERAGE(Cursos[NOTA])</f>
         <v>3.5</v>
@@ -3123,7 +3350,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="55" t="s">
         <v>5</v>
       </c>
@@ -3133,7 +3360,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="56" t="s">
         <v>6</v>
       </c>
@@ -3149,7 +3376,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
@@ -3168,7 +3395,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
@@ -3187,7 +3414,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
@@ -3206,7 +3433,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>10</v>
       </c>
@@ -3225,7 +3452,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
@@ -3244,7 +3471,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -3252,7 +3479,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="29" t="s">
         <v>12</v>
       </c>
@@ -3262,7 +3489,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
         <v>13</v>
       </c>
@@ -3285,7 +3512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
@@ -3308,7 +3535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>15</v>
       </c>
@@ -3329,7 +3556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
         <v>16</v>
       </c>
@@ -3561,62 +3788,62 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.4453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.78125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="8.98828125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.56640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.78125" style="62" customWidth="1"/>
-    <col min="7" max="7" width="8.98828125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="30.265625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.078125" style="62" customWidth="1"/>
-    <col min="10" max="10" width="20.2265625" style="62" customWidth="1"/>
-    <col min="11" max="11" width="3.59375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.13671875" style="4"/>
+    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="62" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="62" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="41"/>
       <c r="B3" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="I5" s="89">
+      <c r="I5" s="91">
         <f>TERMO!I5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="89"/>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="91"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-    </row>
-    <row r="7" spans="1:11" s="52" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+    </row>
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
         <v>31</v>
       </c>
@@ -3629,7 +3856,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30">
         <f>E13/B13</f>
         <v>0.74545454545454548</v>
@@ -3639,23 +3866,23 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="90">
+    <row r="10" spans="1:11" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="92">
         <f>B9</f>
         <v>0.74545454545454548</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="93"/>
       <c r="F10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
       <c r="F11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:11" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="47" t="s">
         <v>32</v>
       </c>
@@ -3666,7 +3893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="29.25" x14ac:dyDescent="0.2">
       <c r="B13" s="59">
         <f>C16</f>
         <v>2750</v>
@@ -3684,13 +3911,13 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
       <c r="F14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
       <c r="F15" s="4"/>
       <c r="I15" s="27" t="s">
@@ -3700,7 +3927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="47" t="s">
         <v>33</v>
       </c>
@@ -3729,7 +3956,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
         <v>34</v>
       </c>
@@ -3752,7 +3979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
@@ -3776,7 +4003,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
@@ -3800,7 +4027,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
@@ -3824,7 +4051,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
@@ -3848,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="61"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
@@ -3867,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="4" t="s">
         <v>47</v>
       </c>
@@ -3885,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E24" s="4" t="s">
         <v>48</v>
       </c>
@@ -3895,7 +4122,7 @@
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
     </row>
-    <row r="25" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3903,7 +4130,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3911,7 +4138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27" s="4" t="s">
         <v>51</v>
       </c>
@@ -3984,59 +4211,59 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.4453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.3125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.41796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.91796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.2265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.78125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="3.59375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.13671875" style="4"/>
+    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.7109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="42" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="41"/>
       <c r="B3" s="41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F5" s="89">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="91">
         <f>TERMO!I5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="89"/>
-    </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-    </row>
-    <row r="7" spans="1:8" s="52" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="91"/>
+    </row>
+    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+    </row>
+    <row r="7" spans="1:8" s="52" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="48" t="s">
         <v>64</v>
       </c>
@@ -4056,7 +4283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
         <v>65</v>
       </c>
@@ -4073,7 +4300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="28" t="s">
         <v>65</v>
       </c>
@@ -4090,7 +4317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>65</v>
       </c>
